--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EF4376-3C0D-9C41-9AB2-B4C4B7DC8C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F96B95-0B7E-654A-BC1F-7335365BD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="97">
   <si>
     <t>DOI</t>
   </si>
@@ -154,9 +154,6 @@
     <t>ECOI (%)</t>
   </si>
   <si>
-    <t>mRNA lavels relative to GAPDH</t>
-  </si>
-  <si>
     <t>IL-6 (pg/mL)</t>
   </si>
   <si>
@@ -233,13 +230,94 @@
   </si>
   <si>
     <t>KO/WT (log10)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>mRNA levels relative to GAPDH</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Rate constant</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,12 +329,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,17 +388,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,15 +717,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="185" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,8 +744,23 @@
       <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -656,8 +776,23 @@
       <c r="E2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -673,8 +808,23 @@
       <c r="E3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -690,8 +840,23 @@
       <c r="E4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -707,8 +872,23 @@
       <c r="E5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -724,8 +904,23 @@
       <c r="E6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -741,8 +936,23 @@
       <c r="E7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -758,8 +968,23 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -773,10 +998,25 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -790,10 +1030,25 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -807,10 +1062,25 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -824,10 +1094,25 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -841,10 +1126,25 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -858,10 +1158,25 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -875,10 +1190,25 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -892,10 +1222,25 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -909,10 +1254,25 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -926,10 +1286,25 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -943,10 +1318,25 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -960,10 +1350,25 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -977,10 +1382,25 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -994,10 +1414,25 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1011,10 +1446,25 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1028,10 +1478,25 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1045,10 +1510,25 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1062,10 +1542,25 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1079,10 +1574,25 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1096,10 +1606,25 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1113,10 +1638,25 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1130,10 +1670,25 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1147,10 +1702,25 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1164,10 +1734,25 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1181,10 +1766,25 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1198,10 +1798,25 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1215,10 +1830,25 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1232,10 +1862,25 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1249,10 +1894,25 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -1266,10 +1926,25 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -1283,10 +1958,25 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -1300,10 +1990,25 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -1317,10 +2022,25 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1334,10 +2054,25 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1351,10 +2086,25 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1368,10 +2118,25 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -1385,10 +2150,25 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>29</v>
       </c>
@@ -1402,10 +2182,25 @@
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +2214,25 @@
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -1436,10 +2246,25 @@
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1453,10 +2278,25 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1470,10 +2310,25 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1487,10 +2342,25 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>29</v>
       </c>
@@ -1504,10 +2374,25 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1521,10 +2406,25 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1538,10 +2438,25 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1555,10 +2470,25 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1572,10 +2502,25 @@
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1589,10 +2534,25 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -1606,10 +2566,25 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" t="s">
+        <v>96</v>
+      </c>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -1623,10 +2598,25 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -1640,10 +2630,25 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -1657,10 +2662,25 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -1674,10 +2694,25 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -1691,10 +2726,25 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -1708,10 +2758,25 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -1725,10 +2790,25 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -1742,10 +2822,25 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -1759,10 +2854,25 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F67" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>86</v>
+      </c>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+      <c r="J67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -1776,10 +2886,25 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="F68" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -1793,10 +2918,25 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -1810,10 +2950,25 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -1827,10 +2982,25 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F71" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -1844,7 +3014,22 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
+        <v>83</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F96B95-0B7E-654A-BC1F-7335365BD8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69EA36-23B4-1341-B9BC-59F113918A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="169">
   <si>
     <t>DOI</t>
   </si>
@@ -311,6 +311,222 @@
   </si>
   <si>
     <t>Current</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.abl3837_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.abm1184_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abm1184_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abm1184_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.abo3627_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq3061_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq3061_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq3178_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig13</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig14</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig15</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig16</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig17</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.abq5202_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1126:science.add0875_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1250_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1250_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1250_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1250_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1126:science.add1250_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade0086_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade0086_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade3483_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade9434_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.ade9434_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adf2753_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adh0614_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adh5339_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi1563_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi2246_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi2246_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi2246_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1126:science.adi8885_log_fig3</t>
   </si>
 </sst>
 </file>
@@ -717,198 +933,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:J52"/>
+      <selection activeCell="A35" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>76</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>75</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>77</v>
       </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
         <v>81</v>
@@ -917,30 +1148,33 @@
         <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>81</v>
@@ -949,30 +1183,33 @@
         <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
@@ -981,1054 +1218,1153 @@
         <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
         <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>86</v>
       </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>85</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>86</v>
       </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>75</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>85</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>86</v>
       </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>75</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>85</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>85</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>86</v>
       </c>
-      <c r="J14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>75</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>85</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>86</v>
       </c>
-      <c r="J15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>86</v>
       </c>
-      <c r="J16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>85</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>86</v>
       </c>
-      <c r="J17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>85</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>86</v>
       </c>
-      <c r="J18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>86</v>
       </c>
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>75</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>85</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>86</v>
       </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>76</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
       </c>
       <c r="I21" t="s">
         <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>75</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
       </c>
       <c r="I22" t="s">
         <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="F23" t="s">
-        <v>80</v>
-      </c>
       <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
         <v>88</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>89</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>90</v>
       </c>
-      <c r="J23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
       <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
         <v>88</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>89</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>90</v>
       </c>
-      <c r="J24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
       <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
         <v>88</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>89</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>90</v>
       </c>
-      <c r="J25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
       </c>
-      <c r="F26" t="s">
-        <v>80</v>
-      </c>
       <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="s">
         <v>88</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>89</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>90</v>
       </c>
-      <c r="J26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
       <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
         <v>88</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>89</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>90</v>
       </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>50</v>
       </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
       <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
         <v>88</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>89</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>90</v>
       </c>
-      <c r="J28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>51</v>
       </c>
-      <c r="F29" t="s">
-        <v>80</v>
-      </c>
       <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
         <v>88</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>89</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>90</v>
       </c>
-      <c r="J29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" t="s">
-        <v>80</v>
-      </c>
       <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
         <v>88</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>89</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>90</v>
       </c>
-      <c r="J30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>80</v>
-      </c>
       <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
         <v>88</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>89</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>90</v>
       </c>
-      <c r="J31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>51</v>
       </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
       <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>89</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>90</v>
       </c>
-      <c r="J32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>51</v>
       </c>
-      <c r="F33" t="s">
-        <v>80</v>
-      </c>
       <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
         <v>88</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>89</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>90</v>
       </c>
-      <c r="J33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>50</v>
       </c>
-      <c r="F34" t="s">
-        <v>80</v>
-      </c>
       <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
         <v>88</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>89</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>90</v>
       </c>
-      <c r="J34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>51</v>
       </c>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
       <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s">
         <v>88</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>89</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>90</v>
       </c>
-      <c r="J35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>50</v>
       </c>
-      <c r="F36" t="s">
-        <v>80</v>
-      </c>
       <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
         <v>88</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>89</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>90</v>
       </c>
-      <c r="J36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>51</v>
       </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
       <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
         <v>88</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>89</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>90</v>
       </c>
-      <c r="J37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>18</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="F38" t="s">
-        <v>80</v>
-      </c>
       <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
         <v>88</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>89</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>90</v>
       </c>
-      <c r="J38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>51</v>
       </c>
-      <c r="F39" t="s">
-        <v>80</v>
-      </c>
       <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
         <v>88</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>89</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>90</v>
       </c>
-      <c r="J39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>20</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>50</v>
       </c>
-      <c r="F40" t="s">
-        <v>80</v>
-      </c>
       <c r="G40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" t="s">
         <v>88</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>89</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>90</v>
       </c>
-      <c r="J40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>52</v>
       </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
         <v>83</v>
@@ -2037,30 +2373,33 @@
         <v>83</v>
       </c>
       <c r="J41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>52</v>
       </c>
-      <c r="F42" t="s">
-        <v>80</v>
-      </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s">
         <v>83</v>
@@ -2069,30 +2408,33 @@
         <v>83</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="F43" t="s">
-        <v>80</v>
-      </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
         <v>83</v>
@@ -2101,30 +2443,33 @@
         <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
         <v>29</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>52</v>
       </c>
-      <c r="F44" t="s">
-        <v>80</v>
-      </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
         <v>83</v>
@@ -2133,30 +2478,33 @@
         <v>83</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>52</v>
       </c>
-      <c r="F45" t="s">
-        <v>80</v>
-      </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s">
         <v>83</v>
@@ -2165,30 +2513,33 @@
         <v>83</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
         <v>29</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>52</v>
       </c>
-      <c r="F46" t="s">
-        <v>80</v>
-      </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s">
         <v>83</v>
@@ -2197,30 +2548,33 @@
         <v>83</v>
       </c>
       <c r="J46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
         <v>29</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>52</v>
       </c>
-      <c r="F47" t="s">
-        <v>80</v>
-      </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s">
         <v>83</v>
@@ -2229,30 +2583,33 @@
         <v>83</v>
       </c>
       <c r="J47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
         <v>29</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>16</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>52</v>
       </c>
-      <c r="F48" t="s">
-        <v>80</v>
-      </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
         <v>83</v>
@@ -2261,30 +2618,33 @@
         <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
         <v>29</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>52</v>
       </c>
-      <c r="F49" t="s">
-        <v>80</v>
-      </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s">
         <v>83</v>
@@ -2293,30 +2653,33 @@
         <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>52</v>
       </c>
-      <c r="F50" t="s">
-        <v>80</v>
-      </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
         <v>83</v>
@@ -2325,30 +2688,33 @@
         <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>52</v>
       </c>
-      <c r="F51" t="s">
-        <v>80</v>
-      </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
         <v>83</v>
@@ -2357,30 +2723,33 @@
         <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>20</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>52</v>
       </c>
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s">
         <v>83</v>
@@ -2389,222 +2758,243 @@
         <v>83</v>
       </c>
       <c r="J52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="K52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>53</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>75</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>76</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>93</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>92</v>
       </c>
-      <c r="J53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" t="s">
         <v>30</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>54</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>75</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>76</v>
-      </c>
-      <c r="H54" t="s">
-        <v>77</v>
       </c>
       <c r="I54" t="s">
         <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>55</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>75</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>76</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>91</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>77</v>
       </c>
-      <c r="J55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="K55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>10</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>55</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>75</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>76</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>91</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>77</v>
       </c>
-      <c r="J56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
         <v>30</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>16</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>56</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>75</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>76</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>93</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>92</v>
       </c>
-      <c r="J57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="K57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>57</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>75</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>76</v>
-      </c>
-      <c r="H58" t="s">
-        <v>96</v>
       </c>
       <c r="I58" t="s">
         <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>58</v>
       </c>
-      <c r="F59" t="s">
-        <v>80</v>
-      </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s">
         <v>83</v>
@@ -2613,62 +3003,68 @@
         <v>83</v>
       </c>
       <c r="J59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" t="s">
         <v>32</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>59</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>75</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>76</v>
-      </c>
-      <c r="H60" t="s">
-        <v>95</v>
       </c>
       <c r="I60" t="s">
         <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="K60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
         <v>33</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>60</v>
       </c>
-      <c r="F61" t="s">
-        <v>80</v>
-      </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s">
         <v>83</v>
@@ -2677,94 +3073,103 @@
         <v>83</v>
       </c>
       <c r="J61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>61</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>75</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>76</v>
-      </c>
-      <c r="H62" t="s">
-        <v>77</v>
       </c>
       <c r="I62" t="s">
         <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
         <v>34</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>62</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>75</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>76</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>91</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>77</v>
       </c>
-      <c r="J63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="K63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
         <v>35</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>63</v>
       </c>
-      <c r="F64" t="s">
-        <v>80</v>
-      </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
         <v>83</v>
@@ -2773,126 +3178,138 @@
         <v>83</v>
       </c>
       <c r="J64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" t="s">
         <v>36</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>64</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>75</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>76</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>93</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>92</v>
       </c>
-      <c r="J65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" t="s">
         <v>37</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>65</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>75</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>76</v>
-      </c>
-      <c r="H66" t="s">
-        <v>94</v>
       </c>
       <c r="I66" t="s">
         <v>94</v>
       </c>
       <c r="J66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" t="s">
         <v>38</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>66</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>75</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>76</v>
-      </c>
-      <c r="H67" t="s">
-        <v>86</v>
       </c>
       <c r="I67" t="s">
         <v>86</v>
       </c>
       <c r="J67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+        <v>86</v>
+      </c>
+      <c r="K67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>67</v>
       </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s">
         <v>83</v>
@@ -2901,62 +3318,68 @@
         <v>83</v>
       </c>
       <c r="J68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>68</v>
       </c>
-      <c r="F69" t="s">
-        <v>80</v>
-      </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s">
         <v>84</v>
       </c>
       <c r="J69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>69</v>
       </c>
-      <c r="F70" t="s">
-        <v>80</v>
-      </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s">
         <v>83</v>
@@ -2964,31 +3387,34 @@
       <c r="I70" t="s">
         <v>83</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="s">
+        <v>83</v>
+      </c>
+      <c r="K70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
         <v>39</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>69</v>
       </c>
-      <c r="F71" t="s">
-        <v>80</v>
-      </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s">
         <v>83</v>
@@ -2996,31 +3422,34 @@
       <c r="I71" t="s">
         <v>83</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" t="s">
         <v>39</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>69</v>
       </c>
-      <c r="F72" t="s">
-        <v>80</v>
-      </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s">
         <v>83</v>
@@ -3028,7 +3457,10 @@
       <c r="I72" t="s">
         <v>83</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="s">
+        <v>83</v>
+      </c>
+      <c r="K72">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69EA36-23B4-1341-B9BC-59F113918A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FD337-F5E2-B54F-AC4B-2CEC08449595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="170">
   <si>
     <t>DOI</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>10.1126:science.adi8885_log_fig3</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -935,13 +938,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="217" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G51" zoomScale="217" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -2968,7 +2973,7 @@
         <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="K58" t="s">
         <v>78</v>
@@ -3038,7 +3043,7 @@
         <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="K60" t="s">
         <v>78</v>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FD337-F5E2-B54F-AC4B-2CEC08449595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6C106-0985-A741-8F78-421120FEFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" zoomScale="217" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="200" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1745,10 +1745,10 @@
         <v>88</v>
       </c>
       <c r="I23" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" t="s">
         <v>89</v>
-      </c>
-      <c r="J23" t="s">
-        <v>90</v>
       </c>
       <c r="K23" t="s">
         <v>78</v>
@@ -1780,10 +1780,10 @@
         <v>88</v>
       </c>
       <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" t="s">
         <v>89</v>
-      </c>
-      <c r="J24" t="s">
-        <v>90</v>
       </c>
       <c r="K24" t="s">
         <v>78</v>
@@ -1815,10 +1815,10 @@
         <v>88</v>
       </c>
       <c r="I25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" t="s">
         <v>89</v>
-      </c>
-      <c r="J25" t="s">
-        <v>90</v>
       </c>
       <c r="K25" t="s">
         <v>78</v>
@@ -1850,10 +1850,10 @@
         <v>88</v>
       </c>
       <c r="I26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" t="s">
         <v>89</v>
-      </c>
-      <c r="J26" t="s">
-        <v>90</v>
       </c>
       <c r="K26" t="s">
         <v>78</v>
@@ -1885,10 +1885,10 @@
         <v>88</v>
       </c>
       <c r="I27" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" t="s">
         <v>89</v>
-      </c>
-      <c r="J27" t="s">
-        <v>90</v>
       </c>
       <c r="K27" t="s">
         <v>78</v>
@@ -1920,10 +1920,10 @@
         <v>88</v>
       </c>
       <c r="I28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" t="s">
         <v>89</v>
-      </c>
-      <c r="J28" t="s">
-        <v>90</v>
       </c>
       <c r="K28" t="s">
         <v>78</v>
@@ -1955,10 +1955,10 @@
         <v>88</v>
       </c>
       <c r="I29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" t="s">
         <v>89</v>
-      </c>
-      <c r="J29" t="s">
-        <v>90</v>
       </c>
       <c r="K29" t="s">
         <v>78</v>
@@ -1990,10 +1990,10 @@
         <v>88</v>
       </c>
       <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" t="s">
         <v>89</v>
-      </c>
-      <c r="J30" t="s">
-        <v>90</v>
       </c>
       <c r="K30" t="s">
         <v>78</v>
@@ -2025,10 +2025,10 @@
         <v>88</v>
       </c>
       <c r="I31" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" t="s">
         <v>89</v>
-      </c>
-      <c r="J31" t="s">
-        <v>90</v>
       </c>
       <c r="K31" t="s">
         <v>78</v>
@@ -2060,10 +2060,10 @@
         <v>88</v>
       </c>
       <c r="I32" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
         <v>89</v>
-      </c>
-      <c r="J32" t="s">
-        <v>90</v>
       </c>
       <c r="K32" t="s">
         <v>78</v>
@@ -2095,10 +2095,10 @@
         <v>88</v>
       </c>
       <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
         <v>89</v>
-      </c>
-      <c r="J33" t="s">
-        <v>90</v>
       </c>
       <c r="K33" t="s">
         <v>78</v>
@@ -2130,10 +2130,10 @@
         <v>88</v>
       </c>
       <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
         <v>89</v>
-      </c>
-      <c r="J34" t="s">
-        <v>90</v>
       </c>
       <c r="K34" t="s">
         <v>78</v>
@@ -2165,10 +2165,10 @@
         <v>88</v>
       </c>
       <c r="I35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" t="s">
         <v>89</v>
-      </c>
-      <c r="J35" t="s">
-        <v>90</v>
       </c>
       <c r="K35" t="s">
         <v>78</v>
@@ -2200,10 +2200,10 @@
         <v>88</v>
       </c>
       <c r="I36" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
         <v>89</v>
-      </c>
-      <c r="J36" t="s">
-        <v>90</v>
       </c>
       <c r="K36" t="s">
         <v>78</v>
@@ -2235,10 +2235,10 @@
         <v>88</v>
       </c>
       <c r="I37" t="s">
+        <v>90</v>
+      </c>
+      <c r="J37" t="s">
         <v>89</v>
-      </c>
-      <c r="J37" t="s">
-        <v>90</v>
       </c>
       <c r="K37" t="s">
         <v>78</v>
@@ -2270,10 +2270,10 @@
         <v>88</v>
       </c>
       <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" t="s">
         <v>89</v>
-      </c>
-      <c r="J38" t="s">
-        <v>90</v>
       </c>
       <c r="K38" t="s">
         <v>78</v>
@@ -2305,10 +2305,10 @@
         <v>88</v>
       </c>
       <c r="I39" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" t="s">
         <v>89</v>
-      </c>
-      <c r="J39" t="s">
-        <v>90</v>
       </c>
       <c r="K39" t="s">
         <v>78</v>
@@ -2340,10 +2340,10 @@
         <v>88</v>
       </c>
       <c r="I40" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" t="s">
         <v>89</v>
-      </c>
-      <c r="J40" t="s">
-        <v>90</v>
       </c>
       <c r="K40" t="s">
         <v>78</v>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE6C106-0985-A741-8F78-421120FEFD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F14613-3A69-2B42-962B-927FA0C55D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="165">
   <si>
     <t>DOI</t>
   </si>
@@ -259,9 +259,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Protein</t>
-  </si>
-  <si>
     <t>Relative</t>
   </si>
   <si>
@@ -274,9 +271,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>Cytokine concentration</t>
   </si>
   <si>
@@ -295,22 +289,13 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Frequency</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>Rate constant</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
     <t>Energy</t>
-  </si>
-  <si>
-    <t>Current</t>
   </si>
   <si>
     <t>Fig Index</t>
@@ -938,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="200" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J40"/>
+    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="200" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -951,7 +936,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -986,7 +971,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1010,7 +995,7 @@
         <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>77</v>
@@ -1021,7 +1006,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1045,7 +1030,7 @@
         <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
         <v>77</v>
@@ -1056,7 +1041,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1080,7 +1065,7 @@
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -1091,7 +1076,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1115,7 +1100,7 @@
         <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
         <v>77</v>
@@ -1126,7 +1111,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1144,16 +1129,16 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
         <v>80</v>
       </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
         <v>78</v>
@@ -1161,7 +1146,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1179,16 +1164,16 @@
         <v>43</v>
       </c>
       <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
         <v>80</v>
       </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
         <v>78</v>
@@ -1196,7 +1181,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1214,16 +1199,16 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
         <v>78</v>
@@ -1231,7 +1216,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1246,19 +1231,19 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
         <v>78</v>
@@ -1266,7 +1251,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1290,10 +1275,10 @@
         <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
         <v>78</v>
@@ -1301,7 +1286,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1325,10 +1310,10 @@
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
         <v>78</v>
@@ -1336,7 +1321,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1360,10 +1345,10 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
         <v>78</v>
@@ -1371,7 +1356,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1395,10 +1380,10 @@
         <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
         <v>78</v>
@@ -1406,7 +1391,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1430,10 +1415,10 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
         <v>78</v>
@@ -1441,7 +1426,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1465,10 +1450,10 @@
         <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
         <v>78</v>
@@ -1476,7 +1461,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1500,10 +1485,10 @@
         <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
         <v>78</v>
@@ -1511,7 +1496,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1535,10 +1520,10 @@
         <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
         <v>78</v>
@@ -1546,7 +1531,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1570,10 +1555,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>78</v>
@@ -1581,7 +1566,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1605,10 +1590,10 @@
         <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
         <v>78</v>
@@ -1616,7 +1601,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1640,10 +1625,10 @@
         <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
         <v>78</v>
@@ -1651,7 +1636,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1675,10 +1660,10 @@
         <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s">
         <v>78</v>
@@ -1686,7 +1671,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1710,10 +1695,10 @@
         <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
         <v>78</v>
@@ -1721,7 +1706,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1739,16 +1724,16 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
         <v>88</v>
       </c>
-      <c r="I23" t="s">
-        <v>90</v>
-      </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s">
         <v>78</v>
@@ -1756,7 +1741,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1774,16 +1759,16 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
         <v>88</v>
       </c>
-      <c r="I24" t="s">
-        <v>90</v>
-      </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
         <v>78</v>
@@ -1791,7 +1776,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1809,16 +1794,16 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
         <v>88</v>
       </c>
-      <c r="I25" t="s">
-        <v>90</v>
-      </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
         <v>78</v>
@@ -1826,7 +1811,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1844,16 +1829,16 @@
         <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
         <v>88</v>
       </c>
-      <c r="I26" t="s">
-        <v>90</v>
-      </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
         <v>78</v>
@@ -1861,7 +1846,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1879,16 +1864,16 @@
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
         <v>88</v>
       </c>
-      <c r="I27" t="s">
-        <v>90</v>
-      </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
         <v>78</v>
@@ -1896,7 +1881,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1914,16 +1899,16 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
         <v>88</v>
       </c>
-      <c r="I28" t="s">
-        <v>90</v>
-      </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
         <v>78</v>
@@ -1931,7 +1916,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1949,16 +1934,16 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
         <v>88</v>
       </c>
-      <c r="I29" t="s">
-        <v>90</v>
-      </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
         <v>78</v>
@@ -1966,7 +1951,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1984,16 +1969,16 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
         <v>88</v>
       </c>
-      <c r="I30" t="s">
-        <v>90</v>
-      </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s">
         <v>78</v>
@@ -2001,7 +1986,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2019,16 +2004,16 @@
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
         <v>88</v>
       </c>
-      <c r="I31" t="s">
-        <v>90</v>
-      </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s">
         <v>78</v>
@@ -2036,7 +2021,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2054,16 +2039,16 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
         <v>88</v>
       </c>
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s">
         <v>78</v>
@@ -2071,7 +2056,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2089,16 +2074,16 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
         <v>88</v>
       </c>
-      <c r="I33" t="s">
-        <v>90</v>
-      </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s">
         <v>78</v>
@@ -2106,7 +2091,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2124,16 +2109,16 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
         <v>88</v>
       </c>
-      <c r="I34" t="s">
-        <v>90</v>
-      </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s">
         <v>78</v>
@@ -2141,7 +2126,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2159,16 +2144,16 @@
         <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
         <v>88</v>
       </c>
-      <c r="I35" t="s">
-        <v>90</v>
-      </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s">
         <v>78</v>
@@ -2176,7 +2161,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2194,16 +2179,16 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
         <v>88</v>
       </c>
-      <c r="I36" t="s">
-        <v>90</v>
-      </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s">
         <v>78</v>
@@ -2211,7 +2196,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2229,16 +2214,16 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
         <v>88</v>
       </c>
-      <c r="I37" t="s">
-        <v>90</v>
-      </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
         <v>78</v>
@@ -2246,7 +2231,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2264,16 +2249,16 @@
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
         <v>88</v>
       </c>
-      <c r="I38" t="s">
-        <v>90</v>
-      </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s">
         <v>78</v>
@@ -2281,7 +2266,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2299,16 +2284,16 @@
         <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
         <v>88</v>
       </c>
-      <c r="I39" t="s">
-        <v>90</v>
-      </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s">
         <v>78</v>
@@ -2316,7 +2301,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2334,16 +2319,16 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
         <v>88</v>
       </c>
-      <c r="I40" t="s">
-        <v>90</v>
-      </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s">
         <v>78</v>
@@ -2351,7 +2336,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2369,16 +2354,16 @@
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s">
         <v>78</v>
@@ -2386,7 +2371,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2404,16 +2389,16 @@
         <v>52</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
         <v>78</v>
@@ -2421,7 +2406,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -2439,16 +2424,16 @@
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s">
         <v>78</v>
@@ -2456,7 +2441,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -2474,16 +2459,16 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" t="s">
         <v>78</v>
@@ -2491,7 +2476,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -2509,16 +2494,16 @@
         <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
         <v>78</v>
@@ -2526,7 +2511,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -2544,16 +2529,16 @@
         <v>52</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" t="s">
         <v>78</v>
@@ -2561,7 +2546,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -2579,16 +2564,16 @@
         <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s">
         <v>78</v>
@@ -2596,7 +2581,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -2614,16 +2599,16 @@
         <v>52</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s">
         <v>78</v>
@@ -2631,7 +2616,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -2649,16 +2634,16 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s">
         <v>78</v>
@@ -2666,7 +2651,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -2684,16 +2669,16 @@
         <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s">
         <v>78</v>
@@ -2701,7 +2686,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2719,16 +2704,16 @@
         <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
         <v>78</v>
@@ -2736,7 +2721,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -2754,16 +2739,16 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s">
         <v>78</v>
@@ -2771,7 +2756,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
@@ -2795,10 +2780,10 @@
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s">
         <v>78</v>
@@ -2806,7 +2791,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
@@ -2841,7 +2826,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
@@ -2865,7 +2850,7 @@
         <v>76</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s">
         <v>77</v>
@@ -2876,7 +2861,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -2900,7 +2885,7 @@
         <v>76</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s">
         <v>77</v>
@@ -2911,7 +2896,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -2935,10 +2920,10 @@
         <v>76</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s">
         <v>78</v>
@@ -2946,7 +2931,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -2970,10 +2955,10 @@
         <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="J58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s">
         <v>78</v>
@@ -2981,7 +2966,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
@@ -2999,16 +2984,16 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K59" t="s">
         <v>78</v>
@@ -3016,7 +3001,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -3040,10 +3025,10 @@
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K60" t="s">
         <v>78</v>
@@ -3051,7 +3036,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -3069,16 +3054,16 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K61" t="s">
         <v>78</v>
@@ -3086,7 +3071,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
@@ -3121,7 +3106,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -3145,7 +3130,7 @@
         <v>76</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s">
         <v>77</v>
@@ -3156,7 +3141,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -3174,16 +3159,16 @@
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s">
         <v>78</v>
@@ -3191,7 +3176,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -3215,10 +3200,10 @@
         <v>76</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s">
         <v>78</v>
@@ -3226,7 +3211,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -3250,10 +3235,10 @@
         <v>76</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s">
         <v>78</v>
@@ -3261,7 +3246,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3285,10 +3270,10 @@
         <v>76</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K67" t="s">
         <v>78</v>
@@ -3296,7 +3281,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3314,16 +3299,16 @@
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s">
         <v>78</v>
@@ -3331,7 +3316,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3349,16 +3334,16 @@
         <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s">
         <v>78</v>
@@ -3366,7 +3351,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
         <v>39</v>
@@ -3384,16 +3369,16 @@
         <v>69</v>
       </c>
       <c r="G70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K70">
         <v>10</v>
@@ -3401,7 +3386,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -3419,16 +3404,16 @@
         <v>69</v>
       </c>
       <c r="G71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K71">
         <v>10</v>
@@ -3436,7 +3421,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
         <v>39</v>
@@ -3454,16 +3439,16 @@
         <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K72">
         <v>10</v>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F14613-3A69-2B42-962B-927FA0C55D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520CA9C-CDAA-8344-87A6-8CC221CDEF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="163">
   <si>
     <t>DOI</t>
   </si>
@@ -280,15 +280,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Calculated value</t>
-  </si>
-  <si>
-    <t>Fluorescence</t>
-  </si>
-  <si>
-    <t>Relative luminescence</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -515,6 +506,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Titer</t>
   </si>
 </sst>
 </file>
@@ -923,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -971,7 +965,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1006,7 +1000,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1041,7 +1035,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1076,7 +1070,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1111,7 +1105,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1146,7 +1140,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1181,7 +1175,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1216,7 +1210,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1251,7 +1245,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1286,7 +1280,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1391,7 +1385,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1426,7 +1420,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1461,7 +1455,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1496,7 +1490,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1531,7 +1525,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1566,7 +1560,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1636,7 +1630,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1671,7 +1665,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1724,16 +1718,16 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
         <v>78</v>
@@ -1741,7 +1735,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1759,16 +1753,16 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
         <v>78</v>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1794,16 +1788,16 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
         <v>78</v>
@@ -1811,7 +1805,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1829,16 +1823,16 @@
         <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
         <v>78</v>
@@ -1846,7 +1840,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1864,16 +1858,16 @@
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
         <v>78</v>
@@ -1881,7 +1875,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1899,16 +1893,16 @@
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
         <v>78</v>
@@ -1916,7 +1910,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1934,16 +1928,16 @@
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
         <v>78</v>
@@ -1951,7 +1945,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1969,16 +1963,16 @@
         <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s">
         <v>78</v>
@@ -1986,7 +1980,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2004,16 +1998,16 @@
         <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
         <v>78</v>
@@ -2021,7 +2015,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2039,16 +2033,16 @@
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
         <v>78</v>
@@ -2056,7 +2050,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2074,16 +2068,16 @@
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
         <v>78</v>
@@ -2091,7 +2085,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -2109,16 +2103,16 @@
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
         <v>78</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -2144,16 +2138,16 @@
         <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
         <v>78</v>
@@ -2161,7 +2155,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -2179,16 +2173,16 @@
         <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
         <v>78</v>
@@ -2196,7 +2190,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2214,16 +2208,16 @@
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s">
         <v>78</v>
@@ -2231,7 +2225,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2249,16 +2243,16 @@
         <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s">
         <v>78</v>
@@ -2266,7 +2260,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2284,16 +2278,16 @@
         <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s">
         <v>78</v>
@@ -2301,7 +2295,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2319,16 +2313,16 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s">
         <v>78</v>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
@@ -2371,7 +2365,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -2406,7 +2400,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
@@ -2441,7 +2435,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
@@ -2476,7 +2470,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -2511,7 +2505,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -2546,7 +2540,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -2581,7 +2575,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -2651,7 +2645,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -2686,7 +2680,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2721,7 +2715,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -2756,7 +2750,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
@@ -2780,10 +2774,10 @@
         <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s">
         <v>78</v>
@@ -2791,7 +2785,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
         <v>30</v>
@@ -2826,7 +2820,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" t="s">
         <v>30</v>
@@ -2861,7 +2855,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -2896,7 +2890,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -2920,10 +2914,10 @@
         <v>76</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s">
         <v>78</v>
@@ -2931,7 +2925,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -2955,10 +2949,10 @@
         <v>76</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K58" t="s">
         <v>78</v>
@@ -2966,7 +2960,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
@@ -3001,7 +2995,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -3025,10 +3019,10 @@
         <v>76</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K60" t="s">
         <v>78</v>
@@ -3036,7 +3030,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -3071,7 +3065,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
@@ -3106,7 +3100,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
         <v>34</v>
@@ -3141,7 +3135,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -3176,7 +3170,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -3200,10 +3194,10 @@
         <v>76</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s">
         <v>78</v>
@@ -3211,7 +3205,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -3235,10 +3229,10 @@
         <v>76</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s">
         <v>78</v>
@@ -3246,7 +3240,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3281,7 +3275,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3316,7 +3310,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3351,7 +3345,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
         <v>39</v>
@@ -3386,7 +3380,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
         <v>39</v>
@@ -3421,7 +3415,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
         <v>39</v>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520CA9C-CDAA-8344-87A6-8CC221CDEF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADD90E-1E70-F94A-BDD6-8ED3FB2EE0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="158">
   <si>
     <t>DOI</t>
   </si>
@@ -85,9 +85,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>10.1126:science.abq3061</t>
-  </si>
-  <si>
     <t>10.1126:science.abq3178</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>Cytokine concentration (pg/mL)</t>
   </si>
   <si>
-    <t>Afib burden (s)</t>
-  </si>
-  <si>
     <t>CFU by region</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -347,12 +338,6 @@
   </si>
   <si>
     <t>10.1126:science.abo3627_log_fig9</t>
-  </si>
-  <si>
-    <t>10.1126:science.abq3061_log_fig1</t>
-  </si>
-  <si>
-    <t>10.1126:science.abq3061_log_fig2</t>
   </si>
   <si>
     <t>10.1126:science.abq3178_log_fig1</t>
@@ -915,14 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:K40"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
@@ -930,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -945,27 +931,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -980,27 +966,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1015,27 +1001,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1050,27 +1036,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
         <v>75</v>
       </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1085,27 +1071,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
         <v>75</v>
       </c>
-      <c r="H5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>77</v>
-      </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1120,27 +1106,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1155,27 +1141,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1190,27 +1176,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1225,27 +1211,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1260,27 +1246,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1295,27 +1281,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1330,27 +1316,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1365,27 +1351,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1400,27 +1386,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1435,27 +1421,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1470,27 +1456,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1505,27 +1491,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1540,27 +1526,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1575,27 +1561,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1610,27 +1596,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1645,36 +1631,36 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -1683,24 +1669,24 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1709,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1718,593 +1704,593 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2313,374 +2299,374 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2689,33 +2675,33 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -2724,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2733,33 +2719,33 @@
         <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2768,94 +2754,94 @@
         <v>53</v>
       </c>
       <c r="G53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s">
         <v>75</v>
       </c>
-      <c r="H53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
       <c r="J53" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
         <v>75</v>
       </c>
-      <c r="H54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
       <c r="J54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J55" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -2864,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2873,24 +2859,24 @@
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J56" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="K56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -2899,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2908,24 +2894,24 @@
         <v>56</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -2943,33 +2929,33 @@
         <v>57</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -2978,24 +2964,24 @@
         <v>58</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -3004,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -3013,24 +2999,24 @@
         <v>59</v>
       </c>
       <c r="G60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
         <v>75</v>
       </c>
-      <c r="H60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -3048,33 +3034,33 @@
         <v>60</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -3083,27 +3069,27 @@
         <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3118,27 +3104,27 @@
         <v>62</v>
       </c>
       <c r="G63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J63" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3153,27 +3139,27 @@
         <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3188,24 +3174,24 @@
         <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -3214,7 +3200,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -3223,33 +3209,33 @@
         <v>65</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -3258,24 +3244,24 @@
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3284,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -3293,24 +3279,24 @@
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s">
-        <v>82</v>
-      </c>
-      <c r="K68" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3319,132 +3305,62 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s">
-        <v>82</v>
-      </c>
-      <c r="K69" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>82</v>
-      </c>
-      <c r="J71" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>69</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-      <c r="I72" t="s">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s">
-        <v>82</v>
-      </c>
-      <c r="K72">
         <v>10</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/science/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/science/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/science/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDADD90E-1E70-F94A-BDD6-8ED3FB2EE0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894906B1-CC82-E545-868F-9DB39C357EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>10.1126:science.adi8885</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Copies of flaB/1e6 Actb</t>
   </si>
   <si>
@@ -232,12 +229,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -494,25 +485,28 @@
   </si>
   <si>
     <t>Titer</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -589,14 +583,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -916,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -930,28 +924,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -966,27 +960,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1001,27 +995,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1036,27 +1030,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1071,27 +1065,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1106,27 +1100,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1141,27 +1135,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1176,27 +1170,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1211,27 +1205,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1246,27 +1240,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1281,27 +1275,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1316,27 +1310,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1351,27 +1345,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1386,27 +1380,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1421,27 +1415,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1456,27 +1450,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1491,27 +1485,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1526,27 +1520,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1561,27 +1555,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1596,27 +1590,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1631,27 +1625,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1666,27 +1660,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
@@ -1701,27 +1695,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1736,27 +1730,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1771,27 +1765,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1806,27 +1800,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -1841,27 +1835,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1876,27 +1870,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -1911,27 +1905,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -1946,27 +1940,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -1981,27 +1975,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2016,27 +2010,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
         <v>22</v>
@@ -2051,27 +2045,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
         <v>22</v>
@@ -2086,27 +2080,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -2121,27 +2115,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
         <v>22</v>
@@ -2156,27 +2150,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B37" t="s">
         <v>22</v>
@@ -2191,27 +2185,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -2226,27 +2220,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -2261,27 +2255,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -2296,27 +2290,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -2331,27 +2325,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -2366,27 +2360,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -2401,27 +2395,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -2436,27 +2430,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -2471,27 +2465,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -2506,27 +2500,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -2541,27 +2535,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -2576,27 +2570,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -2611,27 +2605,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -2646,27 +2640,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
         <v>29</v>
@@ -2681,27 +2675,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
         <v>29</v>
@@ -2716,27 +2710,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -2751,27 +2745,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
         <v>29</v>
@@ -2786,27 +2780,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
@@ -2821,27 +2815,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
         <v>30</v>
@@ -2856,27 +2850,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K56" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -2891,27 +2885,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -2926,27 +2920,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s">
         <v>32</v>
@@ -2961,27 +2955,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
         <v>32</v>
@@ -2996,27 +2990,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -3031,27 +3025,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
         <v>34</v>
@@ -3066,27 +3060,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
         <v>35</v>
@@ -3101,27 +3095,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H63" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -3136,27 +3130,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K64" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -3171,27 +3165,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -3206,27 +3200,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -3241,27 +3235,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
         <v>38</v>
@@ -3276,19 +3270,19 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -3296,7 +3290,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
         <v>38</v>
@@ -3311,19 +3305,19 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K69">
         <v>10</v>
@@ -3331,7 +3325,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B70" t="s">
         <v>38</v>
@@ -3346,19 +3340,19 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K70">
         <v>10</v>
